--- a/init-data/hzero-message/hzero_platform/hzero-platform-form.xlsx
+++ b/init-data/hzero-message/hzero_platform/hzero-platform-form.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,10 @@
     <t>enabled_flag</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>hpfm_form_header-8</t>
@@ -2098,6 +2101,9 @@
   </si>
   <si>
     <t>value_constraint</t>
+  </si>
+  <si>
+    <t>value_set</t>
   </si>
   <si>
     <t>*</t>
@@ -2141,7 +2147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="0"/>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2317,12 +2323,22 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="48"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2478,7 +2494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2561,6 +2577,8 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3146,7 +3164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3217,31 +3235,37 @@
       <c r="M7" t="s" s="42">
         <v>62</v>
       </c>
+      <c r="N7" t="s" s="43">
+        <v>63</v>
+      </c>
     </row>
     <row r="8">
       <c r="E8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -3252,163 +3276,178 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s" s="43">
         <v>71</v>
       </c>
-      <c r="E10" t="s" s="44">
+      <c r="D10" t="s" s="44">
         <v>72</v>
       </c>
-      <c r="F10" t="s" s="45">
+      <c r="E10" t="s" s="45">
         <v>73</v>
       </c>
-      <c r="G10" t="s" s="46">
+      <c r="F10" t="s" s="46">
         <v>74</v>
       </c>
+      <c r="G10" t="s" s="47">
+        <v>75</v>
+      </c>
       <c r="H10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
         <v>61</v>
       </c>
-      <c r="S10" t="s" s="47">
+      <c r="S10" t="s" s="48">
         <v>62</v>
+      </c>
+      <c r="T10" t="s" s="49">
+        <v>63</v>
+      </c>
+      <c r="U10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S11" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="L12" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
         <v>91</v>
       </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M12" t="s">
-        <v>89</v>
-      </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="R12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="S12" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <f>表单配置!$E$8</f>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R13" t="s">
         <v>69</v>
       </c>
-      <c r="R13" t="s">
-        <v>68</v>
-      </c>
       <c r="S13" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="T13" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
